--- a/figures/hyper_params_table.xlsx
+++ b/figures/hyper_params_table.xlsx
@@ -48,32 +48,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1e-3, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1e-2, 1e-1, 1, 1e1, 1e2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, 1e3</t>
+      <t xml:space="preserve">: 1e-3, 1e-2, 1e-1, 1, 1e1, 1e2, 1e3</t>
     </r>
   </si>
   <si>
@@ -100,7 +75,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: 1, 3, 5, 10, 20, None; </t>
+      <t xml:space="preserve">: 0.5, 0.75, None; </t>
     </r>
     <r>
       <rPr>
@@ -119,7 +94,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: 1, 3, 5, 10, 20, None</t>
+      <t xml:space="preserve">: 5, 25, 100</t>
     </r>
   </si>
   <si>
@@ -216,36 +191,31 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="arial"/>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -322,19 +292,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,13 +327,13 @@
   </sheetPr>
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.7"/>
   </cols>
   <sheetData>
